--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,9 +586,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -545,9 +613,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -574,7 +642,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>272</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -599,9 +667,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
@@ -628,7 +696,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
@@ -655,7 +723,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>275</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>1</v>
@@ -686,7 +754,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -717,7 +785,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -748,7 +816,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>278</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
@@ -779,7 +847,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
@@ -810,7 +878,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -841,7 +909,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -872,7 +940,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
@@ -903,7 +971,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
@@ -934,7 +1002,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
@@ -963,9 +1031,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
@@ -989,9 +1057,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
@@ -1018,7 +1086,7 @@
     <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1030,7 +1098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1042,7 +1110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1053,7 +1121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -1031,7 +963,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>285</v>
       </c>
@@ -1057,7 +989,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>286</v>
       </c>
@@ -1086,7 +1018,7 @@
     <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1098,7 +1030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1110,7 +1042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1121,7 +1053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -963,7 +1031,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
         <v>285</v>
       </c>
@@ -989,7 +1057,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>286</v>
       </c>
@@ -1015,10 +1083,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1030,7 +1097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1042,7 +1109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1053,7 +1120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
@@ -1083,6 +1083,7 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D18" pane="bottomLeft" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -963,7 +1031,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
         <v>285</v>
       </c>
@@ -989,7 +1057,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>286</v>
       </c>
@@ -1018,7 +1086,7 @@
     <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1030,7 +1098,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1042,7 +1110,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1053,7 +1121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -1031,7 +963,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="17">
+    <row r="17" ht="27.6" customHeight="1">
       <c r="A17" s="3" t="n">
         <v>285</v>
       </c>
@@ -1057,7 +989,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>286</v>
       </c>
@@ -1083,9 +1015,10 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1097,7 +1030,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1109,7 +1042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1120,7 +1053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D6" pane="bottomLeft" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -963,7 +1031,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="17" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="17">
       <c r="A17" s="3" t="n">
         <v>285</v>
       </c>
@@ -989,7 +1057,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>286</v>
       </c>
@@ -1015,10 +1083,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="19"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1030,7 +1097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1042,7 +1109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1053,7 +1120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E8" pane="bottomLeft" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -654,39 +722,37 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>275</v>
-      </c>
-      <c r="B7" s="8" t="n">
+      <c r="A7" t="n">
+        <v>476</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 0</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>210214</v>
+          <t>***** is sum of the first n odd numbers</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>n^2</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
@@ -698,7 +764,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 1</t>
+          <t>Square Number can end with digit 0</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -717,7 +783,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
@@ -729,17 +795,17 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 2</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
+          <t>Square Number can end with digit 1</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="G9" s="12" t="n">
@@ -748,7 +814,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
@@ -760,7 +826,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 3</t>
+          <t>Square Number can end with digit 2</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -779,7 +845,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
@@ -791,17 +857,17 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 4</t>
+          <t>Square Number can end with digit 3</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
           <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
       <c r="G11" s="12" t="n">
@@ -810,7 +876,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
@@ -822,7 +888,7 @@
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 5</t>
+          <t>Square Number can end with digit 4</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -841,7 +907,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
@@ -853,7 +919,7 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 6</t>
+          <t>Square Number can end with digit 5</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -872,7 +938,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
@@ -884,17 +950,17 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 7</t>
+          <t>Square Number can end with digit 6</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
         </is>
       </c>
       <c r="G14" s="12" t="n">
@@ -903,7 +969,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
@@ -915,7 +981,7 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digit 8</t>
+          <t>Square Number can end with digit 7</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -934,91 +1000,121 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
+        <v>283</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 8</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
         <v>284</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="B17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>Square Number can end with digit 9</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="17" ht="27.6" customHeight="1">
-      <c r="A17" s="3" t="n">
+      <c r="G17" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="18">
+      <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="B18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>The name Square Number comes from the name of the s*****</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>shape</t>
         </is>
       </c>
-      <c r="G17" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
-      <c r="A18" s="3" t="n">
+      <c r="G18" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="19">
+      <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Square Number (except zero) has an ***** number of positive divisors</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>odd</t>
         </is>
       </c>
-      <c r="G18" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="19"/>
+      <c r="G19" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1030,7 +1126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1042,7 +1138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1053,7 +1149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E8" pane="bottomLeft" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -1060,7 +992,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
@@ -1086,7 +1018,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
@@ -1112,9 +1044,10 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1126,7 +1059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1138,7 +1071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1149,7 +1082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E8" pane="bottomLeft" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -992,7 +1060,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
@@ -1018,7 +1086,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
@@ -1044,10 +1112,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1071,7 +1138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1082,7 +1149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,125 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Square Number is ***** of the number with itself</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>Square Number is multiplication of the number with *****</t>
+  </si>
+  <si>
+    <t>itself</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N^2 usually pronounced as N *****</t>
+  </si>
+  <si>
+    <t>squared</t>
+  </si>
+  <si>
+    <t>The number N is a Square Number iff one can arrange N points in a *****</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N^2 is sum of the first N ***** numbers</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>***** is sum of the first n odd numbers</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 0</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 1</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 2</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 3</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 4</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 5</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 6</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 7</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 8</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 9</t>
+  </si>
+  <si>
+    <t>The name Square Number comes from the name of the s*****</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Square Number (except zero) has an ***** number of positive divisors</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +268,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,588 +585,444 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E8" pane="bottomLeft" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Square Number is ***** of the number with itself</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>multiplication</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Square Number is multiplication of the number with *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>itself</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>272</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>N^2 usually pronounced as N *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>squared</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>N^2 is sum of the first N ***** numbers</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>476</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>***** is sum of the first n odd numbers</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>n^2</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 0</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 1</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 2</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 3</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 4</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 5</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 6</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="n">
         <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 7</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
         <v>283</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 8</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="n">
         <v>284</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 9</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>The name Square Number comes from the name of the s*****</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Square Number (except zero) has an ***** number of positive divisors</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="20"/>
+    <row r="20" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1071,7 +1046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1082,7 +1057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0028E9-CAD5-4FFF-A9C9-04C6C2C01425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -133,28 +139,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -268,51 +273,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -578,29 +592,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E8" pane="bottomLeft" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" spans="1:7" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,11 +633,11 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>270</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -639,16 +649,16 @@
       <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
-      <c r="A3" s="3" t="n">
+      <c r="F2" s="6"/>
+      <c r="G2" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>271</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -660,16 +670,16 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>272</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -681,16 +691,16 @@
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>273</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -702,16 +712,16 @@
       <c r="E5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="n">
+      <c r="F5" s="9"/>
+      <c r="G5" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>274</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -723,16 +733,16 @@
       <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="n"/>
-      <c r="G6" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="n">
+      <c r="F6" s="9"/>
+      <c r="G6" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>476</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -744,16 +754,16 @@
       <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="9" t="n"/>
+      <c r="F7" s="9"/>
       <c r="G7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>275</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -768,15 +778,15 @@
       <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="n">
+      <c r="G8" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>276</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -791,15 +801,15 @@
       <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3" t="n">
+      <c r="G9" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>277</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -814,15 +824,15 @@
       <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="n">
+      <c r="G10" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>278</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -837,15 +847,15 @@
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="n">
+      <c r="G11" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>279</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -860,15 +870,15 @@
       <c r="F12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="n">
+      <c r="G12" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>280</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -883,15 +893,15 @@
       <c r="F13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="n">
+      <c r="G13" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>281</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -906,15 +916,15 @@
       <c r="F14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="n">
+      <c r="G14" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>282</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -929,15 +939,15 @@
       <c r="F15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="3" t="n">
+      <c r="G15" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>283</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -952,15 +962,15 @@
       <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="n">
+      <c r="G16" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>284</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -975,15 +985,15 @@
       <c r="F17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
-      <c r="A18" s="3" t="n">
+      <c r="G17" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>285</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -995,15 +1005,15 @@
       <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
-      <c r="A19" s="3" t="n">
+      <c r="G18" s="12">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>286</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1015,14 +1025,13 @@
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7"/>
+      <c r="G19" s="12">
+        <v>210214</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1034,7 +1043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1046,7 +1055,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1057,7 +1066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -992,7 +1060,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
@@ -1018,7 +1086,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
@@ -1044,10 +1112,9 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1071,7 +1138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1082,7 +1149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -532,24 +464,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -1060,7 +992,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
@@ -1086,7 +1018,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
@@ -1112,9 +1044,10 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1126,7 +1059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1138,7 +1071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1149,7 +1082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,125 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Square Number is ***** of the number with itself</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>Square Number is multiplication of the number with *****</t>
+  </si>
+  <si>
+    <t>itself</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N^2 usually pronounced as N *****</t>
+  </si>
+  <si>
+    <t>squared</t>
+  </si>
+  <si>
+    <t>The number N is a Square Number iff one can arrange N points in a *****</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N^2 is sum of the first N ***** numbers</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>***** is sum of the first n odd numbers</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 0</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 1</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 2</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 3</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 4</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 5</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 6</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 7</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 8</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 9</t>
+  </si>
+  <si>
+    <t>The name Square Number comes from the name of the s*****</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Square Number (except zero) has an ***** number of positive divisors</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +268,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,588 +585,444 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Square Number is ***** of the number with itself</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>multiplication</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Square Number is multiplication of the number with *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>itself</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>272</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>N^2 usually pronounced as N *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>squared</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>N^2 is sum of the first N ***** numbers</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>476</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>***** is sum of the first n odd numbers</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>n^2</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 0</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 1</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 2</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 3</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 4</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 5</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 6</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="n">
         <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 7</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
         <v>283</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 8</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="n">
         <v>284</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 9</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>The name Square Number comes from the name of the s*****</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="G18" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Square Number (except zero) has an ***** number of positive divisors</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="20"/>
+    <row r="20" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1034,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1071,7 +1046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1082,7 +1057,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -545,7 +613,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -599,7 +667,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -992,7 +1060,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
@@ -1018,7 +1086,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="19" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="19">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
@@ -1047,7 +1115,7 @@
     <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1059,7 +1127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1071,7 +1139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1082,7 +1150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" thickBot="1">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
@@ -613,7 +545,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
@@ -667,7 +599,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
@@ -1060,7 +992,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
@@ -1086,7 +1018,7 @@
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
@@ -1115,7 +1047,7 @@
     <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1127,7 +1059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1139,7 +1071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1150,7 +1082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1044,7 +1112,6 @@
         <v>210214</v>
       </c>
     </row>
-    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1112,6 +1044,7 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,125 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Square Number is ***** of the number with itself</t>
-  </si>
-  <si>
-    <t>multiplication</t>
-  </si>
-  <si>
-    <t>Square Number is multiplication of the number with *****</t>
-  </si>
-  <si>
-    <t>itself</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>N^2 usually pronounced as N *****</t>
-  </si>
-  <si>
-    <t>squared</t>
-  </si>
-  <si>
-    <t>The number N is a Square Number iff one can arrange N points in a *****</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>N^2 is sum of the first N ***** numbers</t>
-  </si>
-  <si>
-    <t>odd</t>
-  </si>
-  <si>
-    <t>***** is sum of the first n odd numbers</t>
-  </si>
-  <si>
-    <t>n^2</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 0</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 1</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 2</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 3</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 4</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 5</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 6</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 7</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 8</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 9</t>
-  </si>
-  <si>
-    <t>The name Square Number comes from the name of the s*****</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>Square Number (except zero) has an ***** number of positive divisors</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -268,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -585,444 +466,588 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Square Number is ***** of the number with itself</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>multiplication</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Square Number is multiplication of the number with *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>itself</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>272</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>N^2 usually pronounced as N *****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>squared</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" s="3" t="n">
         <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>N^2 is sum of the first N ***** numbers</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="n">
         <v>476</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>***** is sum of the first n odd numbers</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>n^2</t>
+        </is>
       </c>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="3" t="n">
         <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 0</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G8" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" s="3" t="n">
         <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 1</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G9" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10" s="3" t="n">
         <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 2</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G10" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 3</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G11" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 4</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G12" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" s="3" t="n">
         <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 5</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G13" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14" s="3" t="n">
         <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 6</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G14" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15" s="3" t="n">
         <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 7</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G15" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16" s="3" t="n">
         <v>283</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 8</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G16" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" s="3" t="n">
         <v>284</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 9</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G17" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" s="3" t="n">
         <v>285</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>36</v>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>The name Square Number comes from the name of the s*****</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
       </c>
       <c r="G18" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>286</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>19</v>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Square Number (except zero) has an ***** number of positive divisors</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
       </c>
       <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="20" spans="1:7"/>
+    <row r="20"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1034,7 +1059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1046,7 +1071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1057,7 +1082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -468,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -687,7 +755,7 @@
         <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
@@ -718,7 +786,7 @@
         <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
@@ -749,7 +817,7 @@
         <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
@@ -780,7 +848,7 @@
         <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
@@ -811,7 +879,7 @@
         <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
@@ -842,7 +910,7 @@
         <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
@@ -873,7 +941,7 @@
         <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
@@ -904,7 +972,7 @@
         <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="8" t="inlineStr">
         <is>
@@ -935,7 +1003,7 @@
         <v>283</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
@@ -966,85 +1034,112 @@
         <v>284</v>
       </c>
       <c r="B17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 9</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="18" ht="27.6" customHeight="1">
+      <c r="A18" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 9</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G17" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="18" ht="27.6" customHeight="1">
-      <c r="A18" s="3" t="n">
-        <v>285</v>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>The name Square Number comes from the name of the s*****e</t>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digits *****,*****,…</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="G18" s="12" t="n">
-        <v>210214</v>
+          <t>0,1,4,5,6,9</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200929</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>The name Square Number comes from the name of the s*****e</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
+    <row r="20" ht="27.6" customHeight="1">
+      <c r="A20" s="3" t="n">
+        <v>286</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Square Number (except zero) has an ***** number of positive divisors</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>odd</t>
         </is>
       </c>
-      <c r="G19" s="12" t="n">
-        <v>210214</v>
-      </c>
-    </row>
-    <row r="20"/>
+      <c r="G20" s="12" t="n">
+        <v>210214</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1140,6 +1072,35 @@
         <v>210214</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Image: Sum first N odd numbers</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>201004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -604,7 +604,7 @@
         <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>286</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
@@ -1100,7 +1100,40 @@
         </is>
       </c>
     </row>
-    <row r="22"/>
+    <row r="22">
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Image: Arrange N points in a square</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Image: Odd number of factors</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -464,10 +464,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -581,7 +581,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" s="6" t="inlineStr">
@@ -1101,6 +1101,12 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
       <c r="C22" s="8" t="inlineStr">
         <is>
           <t>A</t>
@@ -1116,8 +1122,19 @@
           <t>square</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
     </row>
     <row r="23">
+      <c r="A23" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
           <t>A</t>
@@ -1133,7 +1150,13 @@
           <t>odd</t>
         </is>
       </c>
-    </row>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -1156,7 +1224,6 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -1224,6 +1156,7 @@
         </is>
       </c>
     </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,149 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Square Number is ***** of the number with itself</t>
+  </si>
+  <si>
+    <t>multiplication</t>
+  </si>
+  <si>
+    <t>Square Number is multiplication of the number with *****</t>
+  </si>
+  <si>
+    <t>itself</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N^2 usually pronounced as N *****</t>
+  </si>
+  <si>
+    <t>squared</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>The number N is a Square Number iff one can arrange N points in a *****</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>N^2 is sum of the first N ***** numbers</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>***** is sum of the first n odd numbers</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 0</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 1</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 2</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 3</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 4</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 5</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 6</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 7</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 8</t>
+  </si>
+  <si>
+    <t>Square Number can end with digit 9</t>
+  </si>
+  <si>
+    <t>Square Number can end with digits *****,*****,…</t>
+  </si>
+  <si>
+    <t>0,1,4,5,6,9</t>
+  </si>
+  <si>
+    <t>200929</t>
+  </si>
+  <si>
+    <t>The name Square Number comes from the name of the s*****e</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Square Number (except zero) has an ***** number of positive divisors</t>
+  </si>
+  <si>
+    <t>Image: Sum first N odd numbers</t>
+  </si>
+  <si>
+    <t>201004</t>
+  </si>
+  <si>
+    <t>Image: Arrange N points in a square</t>
+  </si>
+  <si>
+    <t>201007</t>
+  </si>
+  <si>
+    <t>Image: Odd number of factors</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +292,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,700 +609,524 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A8" ySplit="1"/>
+      <selection activeCell="C24" pane="bottomLeft" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Square Number is ***** of the number with itself</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>multiplication</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Square Number is multiplication of the number with *****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>itself</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="n">
         <v>272</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>N^2 usually pronounced as N *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>squared</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="n">
         <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>N^2 is sum of the first N ***** numbers</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>476</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>***** is sum of the first n odd numbers</t>
-        </is>
-      </c>
-      <c r="E7" s="9" t="inlineStr">
-        <is>
-          <t>n^2</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="n">
         <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 0</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="n">
         <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 1</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="n">
         <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 2</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="n">
         <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 3</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
         <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 4</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="n">
         <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 5</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="n">
         <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 6</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="n">
         <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 7</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
         <v>283</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 8</t>
-        </is>
-      </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="n">
         <v>284</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digit 9</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="18" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="18" spans="1:7">
       <c r="A18" t="n">
         <v>1308</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>Square Number can end with digits *****,*****,…</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>0,1,4,5,6,9</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>200929</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="27.6" customHeight="1">
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="19" spans="1:7">
       <c r="A19" s="3" t="n">
         <v>285</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>The name Square Number comes from the name of the s*****e</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="20" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="20" spans="1:7">
       <c r="A20" s="3" t="n">
         <v>286</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Square Number (except zero) has an ***** number of positive divisors</t>
-        </is>
-      </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G20" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7">
       <c r="A21" t="n">
         <v>1310</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Image: Sum first N odd numbers</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>201004</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="n">
         <v>1313</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Image: Arrange N points in a square</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>201007</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="n">
         <v>1314</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Image: Odd number of factors</t>
-        </is>
-      </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>201007</t>
-        </is>
-      </c>
-    </row>
-    <row r="24"/>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1171,7 +1138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1183,7 +1150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1194,7 +1161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,149 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Square Number is ***** of the number with itself</t>
-  </si>
-  <si>
-    <t>multiplication</t>
-  </si>
-  <si>
-    <t>Square Number is multiplication of the number with *****</t>
-  </si>
-  <si>
-    <t>itself</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>N^2 usually pronounced as N *****</t>
-  </si>
-  <si>
-    <t>squared</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>The number N is a Square Number iff one can arrange N points in a *****</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>N^2 is sum of the first N ***** numbers</t>
-  </si>
-  <si>
-    <t>odd</t>
-  </si>
-  <si>
-    <t>***** is sum of the first n odd numbers</t>
-  </si>
-  <si>
-    <t>n^2</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 0</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 1</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 2</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 3</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 4</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 5</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 6</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 7</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 8</t>
-  </si>
-  <si>
-    <t>Square Number can end with digit 9</t>
-  </si>
-  <si>
-    <t>Square Number can end with digits *****,*****,…</t>
-  </si>
-  <si>
-    <t>0,1,4,5,6,9</t>
-  </si>
-  <si>
-    <t>200929</t>
-  </si>
-  <si>
-    <t>The name Square Number comes from the name of the s*****e</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>Square Number (except zero) has an ***** number of positive divisors</t>
-  </si>
-  <si>
-    <t>Image: Sum first N odd numbers</t>
-  </si>
-  <si>
-    <t>201004</t>
-  </si>
-  <si>
-    <t>Image: Arrange N points in a square</t>
-  </si>
-  <si>
-    <t>201007</t>
-  </si>
-  <si>
-    <t>Image: Odd number of factors</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -292,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -609,524 +466,700 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A8" ySplit="1"/>
-      <selection activeCell="C24" pane="bottomLeft" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="14.4" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="14.4" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>270</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Square Number is ***** of the number with itself</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>multiplication</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>271</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Square Number is multiplication of the number with *****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>itself</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
       <c r="G3" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="3" t="n">
         <v>272</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>N^2 usually pronounced as N *****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>squared</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
       <c r="G4" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" s="3" t="n">
         <v>273</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" s="3" t="n">
         <v>274</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>N^2 is sum of the first N ***** numbers</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
       </c>
       <c r="F6" s="9" t="n"/>
       <c r="G6" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="n">
         <v>476</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>***** is sum of the first n odd numbers</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>n^2</t>
+        </is>
       </c>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="3" t="n">
         <v>275</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 0</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G8" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" s="3" t="n">
         <v>276</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>25</v>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 1</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G9" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10" s="3" t="n">
         <v>277</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>24</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 2</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G10" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" s="3" t="n">
         <v>278</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 3</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G11" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" s="3" t="n">
         <v>279</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 4</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G12" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" s="3" t="n">
         <v>280</v>
       </c>
       <c r="B13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 5</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G13" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14" s="3" t="n">
         <v>281</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 6</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G14" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15" s="3" t="n">
         <v>282</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 7</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G15" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16" s="3" t="n">
         <v>283</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 8</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="G16" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" s="3" t="n">
         <v>284</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digit 9</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="G17" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="18" spans="1:7">
+    <row r="18" ht="27.6" customHeight="1">
       <c r="A18" t="n">
         <v>1308</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="inlineStr">
+        <is>
+          <t>Square Number can end with digits *****,*****,…</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>0,1,4,5,6,9</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200929</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="27.6" customHeight="1">
       <c r="A19" s="3" t="n">
         <v>285</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>39</v>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>The name Square Number comes from the name of the s*****e</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
       </c>
       <c r="G19" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20" spans="1:7">
+    <row r="20" ht="27.6" customHeight="1">
       <c r="A20" s="3" t="n">
         <v>286</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>19</v>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Square Number (except zero) has an ***** number of positive divisors</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
       </c>
       <c r="G20" s="12" t="n">
         <v>210214</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="A21" t="n">
         <v>1310</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Image: Sum first N odd numbers</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>201004</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="n">
         <v>1313</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Image: Arrange N points in a square</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="n">
         <v>1314</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7"/>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Image: Odd number of factors</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>201007</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1138,7 +1171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1150,7 +1183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1161,7 +1194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +600,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Square Number is ***** of the number with itself</t>
+          <t>Square Number is ************** of the number with itself</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -559,7 +627,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Square Number is multiplication of the number with *****</t>
+          <t>Square Number is multiplication of the number with *******</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -586,7 +654,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>N^2 usually pronounced as N *****</t>
+          <t>N^2 usually pronounced as N *********</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -613,7 +681,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
+          <t>The number N is a Square Number iff one can arrange N points in a *******</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -640,7 +708,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>N^2 is sum of the first N ***** numbers</t>
+          <t>N^2 is sum of the first N *** numbers</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
@@ -667,7 +735,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>***** is sum of the first n odd numbers</t>
+          <t>*** is sum of the first n odd numbers</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
@@ -1006,7 +1074,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digits *****,*****,…</t>
+          <t>Square Number can end with digits *****************,*****,…</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1060,7 +1128,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Square Number (except zero) has an ***** number of positive divisors</t>
+          <t>Square Number (except zero) has an *** number of positive divisors</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Square Number.xlsx
+++ b/Questions/Mathematics/Numbers/Square Number.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,8 +467,8 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -600,7 +532,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Square Number is ************** of the number with itself</t>
+          <t>Square Number is ***** of the number with itself</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -627,7 +559,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Square Number is multiplication of the number with *******</t>
+          <t>Square Number is multiplication of the number with *****</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -654,7 +586,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>N^2 usually pronounced as N *********</t>
+          <t>N^2 usually pronounced as N *****</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -681,7 +613,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>The number N is a Square Number iff one can arrange N points in a *******</t>
+          <t>The number N is a Square Number iff one can arrange N points in a *****</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
@@ -1074,7 +1006,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Square Number can end with digits *****************,*****,…</t>
+          <t>Square Number can end with digits *, *, *, *, *, *</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
